--- a/SVM for g.usbamp Data/svm_classification_report_a.xlsx
+++ b/SVM for g.usbamp Data/svm_classification_report_a.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6415094339622641</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5074626865671642</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6129032258064515</v>
       </c>
       <c r="E2" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6607142857142857</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5873015873015873</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.5897435897435898</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5850404312668464</v>
+        <v>0.5902980713033315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5840884861407249</v>
+        <v>0.5918003565062389</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5769841269841269</v>
+        <v>0.5882697947214075</v>
       </c>
       <c r="E5" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5900905046786317</v>
+        <v>0.5986152946994561</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5760614272809395</v>
+        <v>0.5914279269117978</v>
       </c>
       <c r="E6" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/SVM for g.usbamp Data/svm_classification_report_a.xlsx
+++ b/SVM for g.usbamp Data/svm_classification_report_a.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6129032258064515</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="E2" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.609375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.609375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.609375</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5726495726495726</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5902980713033315</v>
+        <v>0.5688384433962264</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5918003565062389</v>
+        <v>0.5688384433962264</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5882697947214075</v>
+        <v>0.5688384433962264</v>
       </c>
       <c r="E5" t="n">
         <v>117</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5986152946994561</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5914279269117978</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>

--- a/SVM for g.usbamp Data/svm_classification_report_a.xlsx
+++ b/SVM for g.usbamp Data/svm_classification_report_a.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.5641025641025642</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.609375</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.609375</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D3" t="n">
-        <v>0.609375</v>
+        <v>0.5641025641025642</v>
       </c>
       <c r="E3" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5688384433962264</v>
+        <v>0.5674603174603174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5688384433962264</v>
+        <v>0.5674603174603174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5688384433962264</v>
+        <v>0.5641025641025642</v>
       </c>
       <c r="E5" t="n">
         <v>117</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.5708180708180709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.5641025641025642</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
